--- a/5_analise_completa_tokens.xlsx
+++ b/5_analise_completa_tokens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,1365 +498,2025 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CVE-2020-13776</t>
+          <t>CVE-2013-1965</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>604</v>
+        <v>438</v>
       </c>
       <c r="E2" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F2" t="n">
-        <v>64</v>
+        <v>76398</v>
       </c>
       <c r="G2" t="n">
-        <v>159</v>
+        <v>76471</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>73009</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>73022</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>50210</v>
+        <v>318476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CVE-2018-1049</t>
+          <t>CVE-2012-4387</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F3" t="n">
-        <v>3392</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3443</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1109</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>457744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CVE-2013-4393</t>
+          <t>CVE-2012-4386</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>397</v>
+        <v>232</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
-        <v>9962</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10019</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>1859</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2603</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>768625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CVE-2018-20839</t>
+          <t>CVE-2016-4465</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>583</v>
+        <v>315</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1040</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>148811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CVE-2013-4394</t>
+          <t>CVE-2016-4438</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F6" t="n">
-        <v>40897</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40941</v>
+        <v>55</v>
       </c>
       <c r="H6" t="n">
-        <v>9711</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2466</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12177</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2509623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CVE-2018-15687</t>
+          <t>CVE-2016-4433</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F7" t="n">
-        <v>2269</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2294</v>
+        <v>68</v>
       </c>
       <c r="H7" t="n">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>203866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CVE-2018-16866</t>
+          <t>CVE-2014-0116</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>4803</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4852</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1096</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>452549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CVE-2019-3844</t>
+          <t>CVE-2017-9805</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>857</v>
+        <v>298</v>
       </c>
       <c r="E9" t="n">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
-        <v>16450</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>16596</v>
+        <v>48</v>
       </c>
       <c r="H9" t="n">
-        <v>3669</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1707</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5376</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6237180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CVE-2018-15686</t>
+          <t>CVE-2011-3923</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="E10" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1052</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>148746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CVE-2017-15908</t>
+          <t>CVE-2013-4316</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>954</v>
+        <v>672</v>
       </c>
       <c r="E11" t="n">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>888</v>
+        <v>98</v>
       </c>
       <c r="H11" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>151666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CVE-2015-7510</t>
+          <t>CVE-2016-4430</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>2251</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2269</v>
+        <v>36</v>
       </c>
       <c r="H12" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CVE-2017-9445</t>
+          <t>CVE-2017-12611</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>597</v>
+        <v>167</v>
       </c>
       <c r="E13" t="n">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>143567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CVE-2019-3843</t>
+          <t>CVE-2017-15707</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>785</v>
+        <v>286</v>
       </c>
       <c r="E14" t="n">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
-        <v>7535</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7667</v>
+        <v>51</v>
       </c>
       <c r="H14" t="n">
-        <v>1509</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1597</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3588283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CVE-2012-1101</t>
+          <t>CVE-2016-6795</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="E15" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>159082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CVE-2018-15688</t>
+          <t>CVE-2013-2251</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>866</v>
+        <v>48</v>
       </c>
       <c r="H16" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CVE-2018-16864</t>
+          <t>CVE-2017-9793</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>341</v>
+        <v>454</v>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F17" t="n">
-        <v>2510</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2563</v>
+        <v>69</v>
       </c>
       <c r="H17" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>492942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CVE-2018-16865</t>
+          <t>CVE-2014-7809</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>313</v>
+        <v>216</v>
       </c>
       <c r="E18" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F18" t="n">
-        <v>38685</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>38734</v>
+        <v>29</v>
       </c>
       <c r="H18" t="n">
-        <v>5437</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3287</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8724</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>7341691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CVE-2018-21029</t>
+          <t>CVE-2010-1870</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="E19" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>896</v>
+        <v>60</v>
       </c>
       <c r="H19" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>558532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CVE-2019-6454</t>
+          <t>CVE-2011-1772</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
-        <v>24877</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>24917</v>
+        <v>25</v>
       </c>
       <c r="H20" t="n">
-        <v>4565</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3408</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7973</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2245437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CVE-2019-15718</t>
+          <t>CVE-2013-1966</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>359</v>
+        <v>216</v>
       </c>
       <c r="E21" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>870</v>
+        <v>32</v>
       </c>
       <c r="H21" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>263360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CVE-2013-4392</t>
+          <t>CVE-2013-2115</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>267</v>
+        <v>518</v>
       </c>
       <c r="E22" t="n">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F22" t="n">
-        <v>8127</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>8169</v>
+        <v>81</v>
       </c>
       <c r="H22" t="n">
-        <v>1658</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2086</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>849571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CVE-2013-4327</t>
+          <t>CVE-2013-2134</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>621</v>
+        <v>176</v>
       </c>
       <c r="E23" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>8791</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>8887</v>
+        <v>32</v>
       </c>
       <c r="H23" t="n">
-        <v>2737</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3056</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>620470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CVE-2013-4391</t>
+          <t>CVE-2013-2135</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2805</v>
+        <v>70</v>
       </c>
       <c r="H24" t="n">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>784</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>178008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CVE-2017-1000082</t>
+          <t>CVE-2013-2248</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F25" t="n">
-        <v>48774</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48774</v>
+        <v>46</v>
       </c>
       <c r="H25" t="n">
-        <v>4881</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2723</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>7604</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>8277684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CVE-2017-9217</t>
+          <t>CVE-2013-4310</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="E26" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>406</v>
+        <v>36</v>
       </c>
       <c r="H26" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>176302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CVE-2018-16888</t>
+          <t>CVE-2014-0050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F27" t="n">
-        <v>201897</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>201897</v>
+        <v>43</v>
       </c>
       <c r="H27" t="n">
-        <v>47527</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>43799</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91326</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1363</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>36792884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CVE-2018-6954</t>
+          <t>CVE-2014-0094</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F28" t="n">
-        <v>49859</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>49859</v>
+        <v>73</v>
       </c>
       <c r="H28" t="n">
-        <v>3764</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2574</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6338</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>20608875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CVE-2019-20386</t>
+          <t>CVE-2014-0112</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F29" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400</v>
+        <v>56</v>
       </c>
       <c r="H29" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>51339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CVE-2020-13529</t>
+          <t>CVE-2014-0113</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="E30" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F30" t="n">
-        <v>8265</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>8311</v>
+        <v>36</v>
       </c>
       <c r="H30" t="n">
-        <v>1406</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2113</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>553316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CVE-2020-1712</t>
+          <t>CVE-2015-1831</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>559</v>
+        <v>403</v>
       </c>
       <c r="E31" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F31" t="n">
-        <v>41304</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>41377</v>
+        <v>57</v>
       </c>
       <c r="H31" t="n">
-        <v>12615</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>13887</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>5202169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CVE-2021-33910</t>
+          <t>CVE-2015-5209</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>systemd/systemd</t>
+          <t>apache/struts</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F32" t="n">
-        <v>10564</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>10564</v>
+        <v>70</v>
       </c>
       <c r="H32" t="n">
-        <v>1249</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>986</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2235</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CVE-2016-0785</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>624</v>
+      </c>
+      <c r="E33" t="n">
+        <v>92</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>92</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CVE-2016-2162</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>552</v>
+      </c>
+      <c r="E34" t="n">
+        <v>90</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>90</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CVE-2016-3081</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>633</v>
+      </c>
+      <c r="E35" t="n">
+        <v>102</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>102</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CVE-2016-3082</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>315</v>
+      </c>
+      <c r="E36" t="n">
         <v>51</v>
       </c>
-      <c r="L32" t="n">
-        <v>1928335</v>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>51</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CVE-2016-3087</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>270</v>
+      </c>
+      <c r="E37" t="n">
+        <v>48</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>48</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CVE-2016-3090</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1627</v>
+      </c>
+      <c r="E38" t="n">
+        <v>270</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>270</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CVE-2016-4461</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1115</v>
+      </c>
+      <c r="E39" t="n">
+        <v>173</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>173</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CVE-2016-8738</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>373</v>
+      </c>
+      <c r="E40" t="n">
+        <v>58</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>58</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CVE-2017-5638</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>459</v>
+      </c>
+      <c r="E41" t="n">
+        <v>74</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>74</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CVE-2017-7672</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>376</v>
+      </c>
+      <c r="E42" t="n">
+        <v>58</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>58</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CVE-2017-9787</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>111</v>
+      </c>
+      <c r="E43" t="n">
+        <v>20</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>20</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CVE-2017-9791</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>733</v>
+      </c>
+      <c r="E44" t="n">
+        <v>126</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>126</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CVE-2017-9804</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>310</v>
+      </c>
+      <c r="E45" t="n">
+        <v>46</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>46</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CVE-2018-11776</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>408</v>
+      </c>
+      <c r="E46" t="n">
+        <v>61</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>61</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Struts</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CVE-2018-1327</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>apache/struts</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>276</v>
+      </c>
+      <c r="E47" t="n">
+        <v>43</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>43</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
